--- a/proyecto_fun.xlsx
+++ b/proyecto_fun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Desktop\phyton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840B1E5-006C-4427-942F-673C5B8D94B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2634EE-761F-4CA1-AE98-7F0E28B6E8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="20490" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -33,26 +33,38 @@
     <t>EDAD</t>
   </si>
   <si>
+    <t>CALORIAS QUEMADAS</t>
+  </si>
+  <si>
     <t>PESO(KG)</t>
   </si>
   <si>
+    <t>DISTANCIA RECORRIDA(KM)</t>
+  </si>
+  <si>
+    <t>RITMO(KM/H)</t>
+  </si>
+  <si>
+    <t>DATOS DEL USUARIO</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>diego</t>
+  </si>
+  <si>
+    <t>masculino</t>
+  </si>
+  <si>
     <t>DURACION(MIN)</t>
-  </si>
-  <si>
-    <t>DISTANCIA RECORRIDA(KM)</t>
-  </si>
-  <si>
-    <t>RITMO(KM/H)</t>
-  </si>
-  <si>
-    <t>CALORIAS QUEMADAS (KCAL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,11 +80,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -82,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,16 +112,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,80 +419,99 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
